--- a/output/SMT/meta-llama/task_analysis_results_SMT_meta-llama_Llama-3.1-8B-Instruct_trip_20250624.xlsx
+++ b/output/SMT/meta-llama/task_analysis_results_SMT_meta-llama_Llama-3.1-8B-Instruct_trip_20250624.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiqimei/Desktop/Academic/UPenn/CCB Lab/Project/calendar-planning/output/SMT/meta-llama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B25C15E3-9CCC-1A41-BE85-5EDBC1374976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2974FF66-155A-364B-9DB9-5EEE9C5C7A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="1500" windowWidth="30240" windowHeight="17480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -22,9 +22,8 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="52" r:id="rId4"/>
+    <pivotCache cacheId="53" r:id="rId4"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -4179,7 +4178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4188,8 +4187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4639,7 +4637,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5941BF33-5DE4-2940-BF34-46F0ACDE1103}" name="PivotTable12" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5941BF33-5DE4-2940-BF34-46F0ACDE1103}" name="PivotTable12" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -4992,7 +4990,7 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
@@ -5000,7 +4998,7 @@
       <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>99</v>
       </c>
     </row>
@@ -5008,7 +5006,7 @@
       <c r="A6" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>100</v>
       </c>
     </row>
@@ -5846,7 +5844,7 @@
   <dimension ref="A1:H498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H498"/>
+      <selection activeCell="D5" sqref="D5:D497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5876,7 +5874,7 @@
       <c r="G1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>486</v>
       </c>
     </row>
@@ -6067,7 +6065,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -6090,7 +6088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -6893,7 +6891,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -6916,7 +6914,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -7129,7 +7127,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -7152,7 +7150,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -7601,7 +7599,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -7624,7 +7622,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -8191,7 +8189,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>21</v>
       </c>
@@ -8214,7 +8212,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>21</v>
       </c>
@@ -8686,7 +8684,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>25</v>
       </c>
@@ -8899,7 +8897,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>27</v>
       </c>
@@ -8922,7 +8920,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>27</v>
       </c>
@@ -9158,7 +9156,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>29</v>
       </c>
@@ -9371,7 +9369,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>31</v>
       </c>
@@ -9394,7 +9392,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>31</v>
       </c>
@@ -9725,7 +9723,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>34</v>
       </c>
@@ -9748,7 +9746,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>34</v>
       </c>
@@ -9843,7 +9841,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>35</v>
       </c>
@@ -9866,7 +9864,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>35</v>
       </c>
@@ -10315,7 +10313,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>39</v>
       </c>
@@ -10338,7 +10336,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>39</v>
       </c>
@@ -10905,7 +10903,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>44</v>
       </c>
@@ -11259,7 +11257,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>47</v>
       </c>
@@ -11282,7 +11280,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>47</v>
       </c>
@@ -12013,7 +12011,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>54</v>
       </c>
@@ -12249,7 +12247,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>56</v>
       </c>
@@ -12272,7 +12270,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>56</v>
       </c>
@@ -12367,7 +12365,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>57</v>
       </c>
@@ -12390,7 +12388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>57</v>
       </c>
@@ -12603,7 +12601,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>59</v>
       </c>
@@ -12626,7 +12624,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>59</v>
       </c>
@@ -12744,7 +12742,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>60</v>
       </c>
@@ -13098,7 +13096,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>63</v>
       </c>
@@ -13190,7 +13188,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>64</v>
       </c>
@@ -13213,7 +13211,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>64</v>
       </c>
@@ -13308,7 +13306,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>65</v>
       </c>
@@ -13544,7 +13542,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>67</v>
       </c>
@@ -13567,7 +13565,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>67</v>
       </c>
@@ -13662,7 +13660,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>68</v>
       </c>
@@ -13685,7 +13683,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>68</v>
       </c>
@@ -14016,7 +14014,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>71</v>
       </c>
@@ -14039,7 +14037,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>71</v>
       </c>
@@ -14252,7 +14250,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>73</v>
       </c>
@@ -14275,7 +14273,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>73</v>
       </c>
@@ -14370,7 +14368,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>74</v>
       </c>
@@ -14393,7 +14391,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>74</v>
       </c>
@@ -15668,7 +15666,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>85</v>
       </c>
@@ -15691,7 +15689,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>85</v>
       </c>
@@ -16022,7 +16020,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>88</v>
       </c>
@@ -16045,7 +16043,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>88</v>
       </c>
@@ -16140,7 +16138,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>89</v>
       </c>
@@ -16163,7 +16161,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>89</v>
       </c>
@@ -16376,7 +16374,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>91</v>
       </c>
@@ -16399,7 +16397,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>91</v>
       </c>
@@ -16612,7 +16610,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>93</v>
       </c>
@@ -16635,7 +16633,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>93</v>
       </c>
@@ -16966,7 +16964,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>96</v>
       </c>
@@ -16989,7 +16987,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>96</v>
       </c>
@@ -17084,7 +17082,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>97</v>
       </c>
@@ -17107,7 +17105,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>97</v>
       </c>
@@ -17609,12 +17607,12 @@
   <autoFilter ref="A1:H498" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="5"/>
+        <filter val="4"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="7">
+    <filterColumn colId="3">
       <filters>
-        <filter val="wrong plan"/>
+        <filter val="Wrong plan"/>
       </filters>
     </filterColumn>
   </autoFilter>
